--- a/Data Input Sheets/Alol Island Other Tournaments.xlsx
+++ b/Data Input Sheets/Alol Island Other Tournaments.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df1a1f2124126429/Documents/GitHub/pokemon_game/Data Input Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Fantastic Fifities" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>Trainer</t>
   </si>
@@ -37,6 +37,156 @@
   </si>
   <si>
     <t>Dialogue</t>
+  </si>
+  <si>
+    <t>Bird Keeper Lars</t>
+  </si>
+  <si>
+    <t>Dragon Tamer Jerry</t>
+  </si>
+  <si>
+    <t>Aroma Lady Janiqua</t>
+  </si>
+  <si>
+    <t>Burglar Clint</t>
+  </si>
+  <si>
+    <t>Lady Isabelle</t>
+  </si>
+  <si>
+    <t>Painter Isaac</t>
+  </si>
+  <si>
+    <t>Sailer Mo</t>
+  </si>
+  <si>
+    <t>Sage Sai</t>
+  </si>
+  <si>
+    <t>Beauty Helena</t>
+  </si>
+  <si>
+    <t>Scientist Brielle</t>
+  </si>
+  <si>
+    <t>Gambler Horace</t>
+  </si>
+  <si>
+    <t>Cueball Michael</t>
+  </si>
+  <si>
+    <t>Crushgirl Allie</t>
+  </si>
+  <si>
+    <t>Swimmer Inka</t>
+  </si>
+  <si>
+    <t>Tuber Molly</t>
+  </si>
+  <si>
+    <t>Veteran Tahnee</t>
+  </si>
+  <si>
+    <t>Veteran Yanni</t>
+  </si>
+  <si>
+    <t>Psychic Ingrid</t>
+  </si>
+  <si>
+    <t>Psychic Enrique</t>
+  </si>
+  <si>
+    <t>Supernerd Emmett</t>
+  </si>
+  <si>
+    <t>Doctor Sam</t>
+  </si>
+  <si>
+    <t>Nurse Savannah</t>
+  </si>
+  <si>
+    <t>Teacher Mark</t>
+  </si>
+  <si>
+    <t>Teacher Janet</t>
+  </si>
+  <si>
+    <t>Poke Ranger Luis</t>
+  </si>
+  <si>
+    <t>Poke Ranger Lola</t>
+  </si>
+  <si>
+    <t>Swimmer Chin</t>
+  </si>
+  <si>
+    <t>Lass Yeiko</t>
+  </si>
+  <si>
+    <t>Dragon Tamer Darius</t>
+  </si>
+  <si>
+    <t>Hiker Adrian</t>
+  </si>
+  <si>
+    <t>Picknicker Maya</t>
+  </si>
+  <si>
+    <t>Swimmer Jenni</t>
+  </si>
+  <si>
+    <t>Youngster Bryan</t>
+  </si>
+  <si>
+    <t>Firebreather Rook</t>
+  </si>
+  <si>
+    <t>Teacher Kelly</t>
+  </si>
+  <si>
+    <t>Fossil Maniac Rinaldo</t>
+  </si>
+  <si>
+    <t>Camper Dirk</t>
+  </si>
+  <si>
+    <t>Rocker Garf</t>
+  </si>
+  <si>
+    <t>Channeler Tafiti</t>
+  </si>
+  <si>
+    <t>Bug Catcher Jehovah</t>
+  </si>
+  <si>
+    <t>Gentleman Erik</t>
+  </si>
+  <si>
+    <t>Veteran Valerie</t>
+  </si>
+  <si>
+    <t>Veteran Shin-Choo</t>
+  </si>
+  <si>
+    <t>Lady Evie</t>
+  </si>
+  <si>
+    <t>Pokemaniac Phuc</t>
+  </si>
+  <si>
+    <t>Breeder Ozzie</t>
+  </si>
+  <si>
+    <t>Breeder Osia</t>
+  </si>
+  <si>
+    <t>Policeman McCain</t>
+  </si>
+  <si>
+    <t>Grand Sage Saito</t>
+  </si>
+  <si>
+    <t>Tamer Jorgen</t>
   </si>
 </sst>
 </file>
@@ -397,13 +547,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -414,6 +567,56 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -423,13 +626,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -440,6 +646,56 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -449,13 +705,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -466,6 +725,56 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -475,13 +784,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -492,6 +804,56 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -501,13 +863,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -520,6 +885,56 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Input Sheets/Alol Island Other Tournaments.xlsx
+++ b/Data Input Sheets/Alol Island Other Tournaments.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="F5F39D2CAEB1F4D716194FAFC1F25B2E6222BD8F" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{7002F60B-4F78-4FFC-8613-4B9AF653C764}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fantastic Fifities" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Trainer</t>
   </si>
@@ -187,12 +188,42 @@
   </si>
   <si>
     <t>Tamer Jorgen</t>
+  </si>
+  <si>
+    <t>Pidgeot, Hawking, Unfezant, Xatu, Mandibuzz, Gliscor</t>
+  </si>
+  <si>
+    <t>Dragonair, Syvernt, Shellgon, Sliggoo, Drampa, Kingdra</t>
+  </si>
+  <si>
+    <t>Sunflora, A Exeggutor, Sawsbuck, Torterra, Ludicolo, Mow Rotom</t>
+  </si>
+  <si>
+    <t>Wailord</t>
+  </si>
+  <si>
+    <t>Klefki</t>
+  </si>
+  <si>
+    <t>Magneton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mewostic M, </t>
+  </si>
+  <si>
+    <t>Sawk,</t>
+  </si>
+  <si>
+    <t>Ninetails, Blazekin, Panzar, Emboar, Salazzle, Chandelure</t>
+  </si>
+  <si>
+    <t>Persian, Blissey, Furfrou, Gumshoos, Tauros, Braviary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,16 +577,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,50 +605,80 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -704,7 +766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -783,7 +845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -862,10 +924,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/Data Input Sheets/Alol Island Other Tournaments.xlsx
+++ b/Data Input Sheets/Alol Island Other Tournaments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="F5F39D2CAEB1F4D716194FAFC1F25B2E6222BD8F" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{7002F60B-4F78-4FFC-8613-4B9AF653C764}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="F5F39D2CAEB1F4D716194FAFC1F25B2E6222BD8F" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{22329DA5-4350-42B2-AB99-21BB061A4F98}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fantastic Fifities" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>Trainer</t>
   </si>
@@ -199,25 +199,145 @@
     <t>Sunflora, A Exeggutor, Sawsbuck, Torterra, Ludicolo, Mow Rotom</t>
   </si>
   <si>
-    <t>Wailord</t>
-  </si>
-  <si>
-    <t>Klefki</t>
-  </si>
-  <si>
-    <t>Magneton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mewostic M, </t>
-  </si>
-  <si>
-    <t>Sawk,</t>
-  </si>
-  <si>
     <t>Ninetails, Blazekin, Panzar, Emboar, Salazzle, Chandelure</t>
   </si>
   <si>
     <t>Persian, Blissey, Furfrou, Gumshoos, Tauros, Braviary</t>
+  </si>
+  <si>
+    <t>Sawk, Throh, Machoke,Crabrawler, Hitmontop, Combusken</t>
+  </si>
+  <si>
+    <t>Wailord, Bruxish, Ludicolo, Pelliper, Lanturn, Seismitoad</t>
+  </si>
+  <si>
+    <t>Mewostic M, Gothitelle, Newton, Psyzic, Slowpoke, Sigilyph</t>
+  </si>
+  <si>
+    <t>Klefki, Clefable, Togetic, Mawile, Ribombee, Comfey</t>
+  </si>
+  <si>
+    <t>Magneton, Raichu, Dedenne, Maenctric, Castform Rainy, Stunfisk</t>
+  </si>
+  <si>
+    <t>Delphox, Ninetails, Magmar, Shlizzard, Infernape, Magcargo</t>
+  </si>
+  <si>
+    <t>Weezing,</t>
+  </si>
+  <si>
+    <t>Lucario,</t>
+  </si>
+  <si>
+    <t>Empoleon,</t>
+  </si>
+  <si>
+    <t>Raticate,</t>
+  </si>
+  <si>
+    <t>Klinklang,</t>
+  </si>
+  <si>
+    <t>Dragonite,</t>
+  </si>
+  <si>
+    <t>Alakazam,</t>
+  </si>
+  <si>
+    <t>Dusknoir,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhydon, </t>
+  </si>
+  <si>
+    <t>Blissey, Audino, Stoutland, Linoone, Unfezant, PoygonZ</t>
+  </si>
+  <si>
+    <t>Vikavolt,</t>
+  </si>
+  <si>
+    <t>A Persian,</t>
+  </si>
+  <si>
+    <t>Glaceon,</t>
+  </si>
+  <si>
+    <t>Vileplume,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Muk, </t>
+  </si>
+  <si>
+    <t>Gorebyss,</t>
+  </si>
+  <si>
+    <t>Arcanine,</t>
+  </si>
+  <si>
+    <t>Salamence,</t>
+  </si>
+  <si>
+    <t>A Golem,</t>
+  </si>
+  <si>
+    <t>M Garchomp, Donphan, Nidoking, Gaarock, Mammoswine, Flygon</t>
+  </si>
+  <si>
+    <t>M Swampert,</t>
+  </si>
+  <si>
+    <t>M Audino,</t>
+  </si>
+  <si>
+    <t>M CharizardX,</t>
+  </si>
+  <si>
+    <t>M Sharpedo,</t>
+  </si>
+  <si>
+    <t>M Aerodactyl,</t>
+  </si>
+  <si>
+    <t>M Ursaring,</t>
+  </si>
+  <si>
+    <t>M Manectric,</t>
+  </si>
+  <si>
+    <t>M Banette,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Beedrill, </t>
+  </si>
+  <si>
+    <t>M Granbull, Mawile, Gardevoir, Togekiss, Dedenne, Primarina</t>
+  </si>
+  <si>
+    <t>M Hawlucha,</t>
+  </si>
+  <si>
+    <t>M Blazekin,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Gengar, </t>
+  </si>
+  <si>
+    <t>M Steelix,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Venusaur, </t>
+  </si>
+  <si>
+    <t>M Emolga,</t>
+  </si>
+  <si>
+    <t>M Tyranitar,</t>
+  </si>
+  <si>
+    <t>M Alakazam,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Metagross, </t>
   </si>
 </sst>
 </file>
@@ -580,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +750,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -654,7 +774,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -691,12 +811,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,50 +835,80 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -770,12 +921,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,50 +945,80 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -849,12 +1031,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,50 +1055,80 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -927,13 +1140,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,50 +1165,80 @@
       <c r="A2" t="s">
         <v>43</v>
       </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Data Input Sheets/Alol Island Other Tournaments.xlsx
+++ b/Data Input Sheets/Alol Island Other Tournaments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="F5F39D2CAEB1F4D716194FAFC1F25B2E6222BD8F" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{22329DA5-4350-42B2-AB99-21BB061A4F98}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="F5F39D2CAEB1F4D716194FAFC1F25B2E6222BD8F" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{32B087AD-0EA8-4380-AC1F-3B18BAC13F8E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fantastic Fifities" sheetId="1" r:id="rId1"/>
@@ -223,63 +223,9 @@
     <t>Delphox, Ninetails, Magmar, Shlizzard, Infernape, Magcargo</t>
   </si>
   <si>
-    <t>Weezing,</t>
-  </si>
-  <si>
-    <t>Lucario,</t>
-  </si>
-  <si>
-    <t>Empoleon,</t>
-  </si>
-  <si>
-    <t>Raticate,</t>
-  </si>
-  <si>
-    <t>Klinklang,</t>
-  </si>
-  <si>
-    <t>Dragonite,</t>
-  </si>
-  <si>
-    <t>Alakazam,</t>
-  </si>
-  <si>
-    <t>Dusknoir,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhydon, </t>
-  </si>
-  <si>
     <t>Blissey, Audino, Stoutland, Linoone, Unfezant, PoygonZ</t>
   </si>
   <si>
-    <t>Vikavolt,</t>
-  </si>
-  <si>
-    <t>A Persian,</t>
-  </si>
-  <si>
-    <t>Glaceon,</t>
-  </si>
-  <si>
-    <t>Vileplume,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Muk, </t>
-  </si>
-  <si>
-    <t>Gorebyss,</t>
-  </si>
-  <si>
-    <t>Arcanine,</t>
-  </si>
-  <si>
-    <t>Salamence,</t>
-  </si>
-  <si>
-    <t>A Golem,</t>
-  </si>
-  <si>
     <t>M Garchomp, Donphan, Nidoking, Gaarock, Mammoswine, Flygon</t>
   </si>
   <si>
@@ -338,6 +284,60 @@
   </si>
   <si>
     <t xml:space="preserve">M Metagross, </t>
+  </si>
+  <si>
+    <t>Weezing, Muk, Ggixie, Arbok, Seviper, Qwilfish</t>
+  </si>
+  <si>
+    <t>Lucario, Conkeldurr, Meinshao, Hawlucha, Breloom, Emboar</t>
+  </si>
+  <si>
+    <t>Empoleon, Quagsire, Lapras, Ludicolo, Mantine, Azumarill</t>
+  </si>
+  <si>
+    <t>Raticate, Gumshoos, Fearow, Sawsbuck, Bewear, Pyroar</t>
+  </si>
+  <si>
+    <t>Klinklang, Aggron, Ferrothorn, Togedemaru, Metagross, Steelix</t>
+  </si>
+  <si>
+    <t>Dragonite, Turtinator, Altaria, Drampa, Garchomp, A Exeggutor</t>
+  </si>
+  <si>
+    <t>Alakazam, Medicham, Slowbro, Claydol, Psyzic, Xatu</t>
+  </si>
+  <si>
+    <t>Dusknoir, Gengar, Chandelure, Trevenant, Jellicent, Pallosand</t>
+  </si>
+  <si>
+    <t>Rhydon, Gliscor, Flygon, Gaarock, Duststorm, Swampert</t>
+  </si>
+  <si>
+    <t>Vikavolt, Magnezone, Lanturn, Panzar, Stunfisk, Hawking</t>
+  </si>
+  <si>
+    <t>A Persian, Bisharp, Houndoom, Sharpedo, Cacturne, Krookidle</t>
+  </si>
+  <si>
+    <t>Glaceon, Bodanxious, Weakicle, Weavile, Abomasnow, Crabominable</t>
+  </si>
+  <si>
+    <t>Vileplume, Beartle, Tropius, Whimsicott, Shiftry, Decidueye</t>
+  </si>
+  <si>
+    <t>A Muk, Tyranitar, Sharpedo, Mozambeak, Salazzle, Swalot</t>
+  </si>
+  <si>
+    <t>Gorebyss, Huntail, Newton, Toxapex, Araquanid, Primarina</t>
+  </si>
+  <si>
+    <t>Arcanine, Magcargo, Salazzle, Combustox, Talonflame, Darmanitan</t>
+  </si>
+  <si>
+    <t>Salamence, Flygon, Drampa, Kingdra, Dunspragon, Garchomp</t>
+  </si>
+  <si>
+    <t>A Golem, Rhyperior, Aerodactyl, Crustle, Armaldo, Aurorus</t>
   </si>
 </sst>
 </file>
@@ -817,7 +817,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -860,7 +860,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +927,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -986,7 +986,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1030,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1056,7 +1056,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1166,7 +1166,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,7 +1238,7 @@
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Data Input Sheets/Alol Island Other Tournaments.xlsx
+++ b/Data Input Sheets/Alol Island Other Tournaments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mango\OneDrive\Documents\GitHub\pokemon_game\Data Input Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="F5F39D2CAEB1F4D716194FAFC1F25B2E6222BD8F" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{32B087AD-0EA8-4380-AC1F-3B18BAC13F8E}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="F5F39D2CAEB1F4D716194FAFC1F25B2E6222BD8F" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{B63B460E-F1FE-4FB9-AFA4-82275F9C1B44}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8925" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fantastic Fifities" sheetId="1" r:id="rId1"/>
@@ -229,63 +229,9 @@
     <t>M Garchomp, Donphan, Nidoking, Gaarock, Mammoswine, Flygon</t>
   </si>
   <si>
-    <t>M Swampert,</t>
-  </si>
-  <si>
-    <t>M Audino,</t>
-  </si>
-  <si>
-    <t>M CharizardX,</t>
-  </si>
-  <si>
-    <t>M Sharpedo,</t>
-  </si>
-  <si>
-    <t>M Aerodactyl,</t>
-  </si>
-  <si>
-    <t>M Ursaring,</t>
-  </si>
-  <si>
-    <t>M Manectric,</t>
-  </si>
-  <si>
-    <t>M Banette,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M Beedrill, </t>
-  </si>
-  <si>
     <t>M Granbull, Mawile, Gardevoir, Togekiss, Dedenne, Primarina</t>
   </si>
   <si>
-    <t>M Hawlucha,</t>
-  </si>
-  <si>
-    <t>M Blazekin,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M Gengar, </t>
-  </si>
-  <si>
-    <t>M Steelix,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M Venusaur, </t>
-  </si>
-  <si>
-    <t>M Emolga,</t>
-  </si>
-  <si>
-    <t>M Tyranitar,</t>
-  </si>
-  <si>
-    <t>M Alakazam,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M Metagross, </t>
-  </si>
-  <si>
     <t>Weezing, Muk, Ggixie, Arbok, Seviper, Qwilfish</t>
   </si>
   <si>
@@ -338,6 +284,60 @@
   </si>
   <si>
     <t>A Golem, Rhyperior, Aerodactyl, Crustle, Armaldo, Aurorus</t>
+  </si>
+  <si>
+    <t>M Swampert, Huntail, Starmie, Whiscash,Rotom Wash, Golisopod</t>
+  </si>
+  <si>
+    <t>M Audino, Alolan Raticate, Farfetch'd, Purugly, Diggersby, Heliolisk</t>
+  </si>
+  <si>
+    <t>M CharizardX, Magcargo, Camerupt, Chandelure, Oricorio Baile, Incineroar</t>
+  </si>
+  <si>
+    <t>M Sharpedo, Honchkrow, Shiftry, Skuntank, Weavile, Hydreigon</t>
+  </si>
+  <si>
+    <t>M Aerodactyl, Omastar, Bastiodon, Cradilily, Tyrantrum, Carbink</t>
+  </si>
+  <si>
+    <t>M Ursaring, Poliwrath, Wrock, Medicham, Infernape, Crabominable</t>
+  </si>
+  <si>
+    <t>M Manectric, A Raichu, Heat Rotom, Galvantula, Dedenne, Elektross</t>
+  </si>
+  <si>
+    <t>M Banette, Gengar, Shedinja, Drifblim, Frosslass, Golurk</t>
+  </si>
+  <si>
+    <t>M Beedrill, Venasaur, Alolan Muk, Dragalge, Toxapex, Salazzle</t>
+  </si>
+  <si>
+    <t>M Hawlucha, Lucario, Scrafty, Butterfree, Mistox, Ambipom</t>
+  </si>
+  <si>
+    <t>M Blazekin, Panzar, Ludicolo, Camerupt, Emboar, Chandelure</t>
+  </si>
+  <si>
+    <t>M Gengar, Machamp, Zoroark, Aegislash, Oricorio Sensu, Mimikyu</t>
+  </si>
+  <si>
+    <t>M Steelix, Empoleon, Alolan Dugtrio, Ferrothorn, Medicham, Lucario</t>
+  </si>
+  <si>
+    <t>M Venusaur, Swampert, Torterra, Roserade, Crustle, Shiinoctic</t>
+  </si>
+  <si>
+    <t>M Emolga, Sandslash, Charizard, Skarmory, Vespiquen, Gliscor</t>
+  </si>
+  <si>
+    <t>M Tyranitar, Sceptile, Aggron, Archeops, Typhlosion, Meowstic F</t>
+  </si>
+  <si>
+    <t>M Alakazam, Combustox, Bodanxious, Metagross, Medicham, A Exeggutor</t>
+  </si>
+  <si>
+    <t>M Metagross, Panzar, Dankpras, Beartle, Serpentia, Alakazam</t>
   </si>
 </sst>
 </file>
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -860,7 +860,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +954,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -986,7 +986,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1030,14 +1030,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1140,14 +1140,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,7 +1238,7 @@
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
